--- a/src/dashboard/backend/excel/data/output_test.xlsx
+++ b/src/dashboard/backend/excel/data/output_test.xlsx
@@ -1365,7 +1365,7 @@
       <c r="E2" s="86" t="n"/>
       <c r="F2" s="87" t="inlineStr">
         <is>
-          <t>Camara 4</t>
+          <t>Alice</t>
         </is>
       </c>
       <c r="G2" s="88" t="n"/>
@@ -1408,7 +1408,7 @@
       <c r="E3" s="86" t="n"/>
       <c r="F3" s="87" t="inlineStr">
         <is>
-          <t>Zapopan, Jalisco</t>
+          <t>Wonderland</t>
         </is>
       </c>
       <c r="G3" s="88" t="n"/>
@@ -1451,7 +1451,7 @@
       <c r="E4" s="86" t="n"/>
       <c r="F4" s="93" t="inlineStr">
         <is>
-          <t>Av. Plaza del Sol y Av. Mariano Otero</t>
+          <t>Rabbit Hole</t>
         </is>
       </c>
       <c r="G4" s="94" t="n"/>
@@ -1831,81 +1831,31 @@
       <c r="Y9" s="99" t="n"/>
     </row>
     <row r="10" ht="46.25" customHeight="1" s="105">
-      <c r="A10" s="123" t="inlineStr">
-        <is>
-          <t>video1.mp4</t>
-        </is>
-      </c>
-      <c r="B10" s="124" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C10" s="124" t="n">
-        <v>10</v>
-      </c>
-      <c r="D10" s="125" t="inlineStr">
-        <is>
-          <t>10:10</t>
-        </is>
-      </c>
-      <c r="E10" s="126" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="127" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="127" t="n">
-        <v>30</v>
-      </c>
-      <c r="H10" s="127" t="n">
-        <v>60</v>
-      </c>
-      <c r="I10" s="127" t="n">
-        <v>10</v>
-      </c>
-      <c r="J10" s="127" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K10" s="127" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" s="126" t="n">
-        <v>2</v>
-      </c>
-      <c r="N10" s="127" t="n">
-        <v>2</v>
-      </c>
-      <c r="O10" s="127" t="n">
-        <v>30</v>
-      </c>
-      <c r="P10" s="127" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q10" s="127" t="n">
-        <v>4</v>
-      </c>
-      <c r="R10" s="127" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="S10" s="127" t="n">
-        <v>2</v>
-      </c>
-      <c r="T10" s="128" t="n">
-        <v>0</v>
-      </c>
+      <c r="A10" s="123" t="n"/>
+      <c r="B10" s="124" t="n"/>
+      <c r="C10" s="124" t="n"/>
+      <c r="D10" s="125" t="n"/>
+      <c r="E10" s="126" t="n"/>
+      <c r="F10" s="127" t="n"/>
+      <c r="G10" s="127" t="n"/>
+      <c r="H10" s="127" t="n"/>
+      <c r="I10" s="127" t="n"/>
+      <c r="J10" s="127" t="n"/>
+      <c r="K10" s="127" t="n"/>
+      <c r="L10" s="128" t="n"/>
+      <c r="M10" s="126" t="n"/>
+      <c r="N10" s="127" t="n"/>
+      <c r="O10" s="127" t="n"/>
+      <c r="P10" s="127" t="n"/>
+      <c r="Q10" s="127" t="n"/>
+      <c r="R10" s="127" t="n"/>
+      <c r="S10" s="127" t="n"/>
+      <c r="T10" s="128" t="n"/>
       <c r="U10" s="126" t="n"/>
       <c r="V10" s="127" t="n"/>
       <c r="W10" s="127" t="n"/>
       <c r="X10" s="128" t="n"/>
-      <c r="Y10" s="129" t="inlineStr">
-        <is>
-          <t>Carro se pasa el alto</t>
-        </is>
-      </c>
+      <c r="Y10" s="129" t="n"/>
       <c r="Z10" s="130" t="n"/>
     </row>
     <row r="11" ht="23.85" customHeight="1" s="105">
